--- a/datasets/tree_DBH_hollows/input/Plot 06.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/From robyn/Thursday/plots/06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC4CA4-BA10-0C49-9794-316317E6C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCA7B79-B92D-CB45-854C-DEE30383F60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="17420" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
+    <workbookView xWindow="8580" yWindow="500" windowWidth="17420" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="17">
   <si>
     <t>Tree Number</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Previously 165 - believed to be the same tree</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="98" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,38 +501,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>39.9</v>
+        <v>43.4</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -546,13 +572,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>43.4</v>
+        <v>49.6</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -569,59 +595,59 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>49.6</v>
+        <v>50.7</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>50.7</v>
+        <v>42.2</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>42.2</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -638,13 +664,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>41.2</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -661,13 +687,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>41.2</v>
+        <v>43.5</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -684,59 +710,59 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>43.5</v>
+        <v>52.5</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>52.5</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>39.799999999999997</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -753,13 +779,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -772,43 +798,43 @@
       </c>
       <c r="I14" s="2">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>38.200000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>164</v>
+        <v>935</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>38.5</v>
+        <v>39.5</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -821,17 +847,20 @@
       </c>
       <c r="I16">
         <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>39.5</v>
+        <v>46.6</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -848,13 +877,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>46.6</v>
+        <v>42.6</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -871,13 +900,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>42.6</v>
+        <v>45.2</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -894,13 +923,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>45.2</v>
+        <v>46.3</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -917,13 +946,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>46.3</v>
+        <v>41.8</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -936,43 +965,40 @@
       </c>
       <c r="I21">
         <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>41.8</v>
+        <v>25.5</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -986,13 +1012,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.2</v>
+        <v>25.4</v>
       </c>
       <c r="E24" t="s">
         <v>15</v>
@@ -1006,13 +1032,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>25.4</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
@@ -1026,13 +1052,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>25.4</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
@@ -1046,13 +1072,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>25.4</v>
+        <v>23.6</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -1066,13 +1092,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>23.6</v>
+        <v>21.9</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
@@ -1086,13 +1112,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>21.9</v>
+        <v>23.1</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -1106,13 +1132,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1126,13 +1152,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>22.6</v>
+        <v>28.3</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -1146,33 +1172,39 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>28.3</v>
+        <v>36.1</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>36.1</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -1192,13 +1224,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>32</v>
+        <v>35.5</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -1218,13 +1250,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>35.5</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1244,13 +1276,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -1270,13 +1302,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>34.4</v>
+        <v>31.1</v>
       </c>
       <c r="E37" t="s">
         <v>15</v>
@@ -1296,13 +1328,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>31.1</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -1322,13 +1354,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>35.299999999999997</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E39" t="s">
         <v>15</v>
@@ -1348,13 +1380,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>34.700000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
@@ -1374,13 +1406,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>33.5</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E41" t="s">
         <v>15</v>
@@ -1400,33 +1432,34 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -1434,26 +1467,25 @@
       <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="2">
-        <v>41.1</v>
+      <c r="D43">
+        <v>40.799999999999997</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -1462,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="D44">
-        <v>40.799999999999997</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -1479,7 +1511,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -1488,24 +1520,24 @@
         <v>12</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>49.5</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -1514,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="D46">
-        <v>49.5</v>
+        <v>52.6</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -1531,7 +1563,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1540,24 +1572,15 @@
         <v>12</v>
       </c>
       <c r="D47">
-        <v>52.6</v>
+        <v>43.1</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1566,15 +1589,24 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>43.1</v>
+        <v>49.5</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -1583,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>49.5</v>
+        <v>42.7</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -1600,7 +1632,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -1609,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="D50">
-        <v>42.7</v>
+        <v>44.1</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -1626,7 +1658,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -1635,24 +1667,21 @@
         <v>12</v>
       </c>
       <c r="D51">
-        <v>44.1</v>
+        <v>52.7</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1661,21 +1690,24 @@
         <v>12</v>
       </c>
       <c r="D52">
-        <v>52.7</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" t="s">
-        <v>13</v>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -1684,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="D53">
-        <v>40.200000000000003</v>
+        <v>48.7</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
@@ -1701,7 +1733,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1710,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="D54">
-        <v>48.7</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
@@ -1727,7 +1759,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1736,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="D55">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -1753,7 +1785,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>164</v>
+        <v>935</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1762,7 +1794,7 @@
         <v>12</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>41.9</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -1775,11 +1807,14 @@
       </c>
       <c r="I56" s="2">
         <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>935</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1788,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="D57">
-        <v>41.9</v>
+        <v>47.8</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
@@ -1802,13 +1837,10 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>166</v>
+      <c r="A58" s="3">
+        <v>167</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1817,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>47.8</v>
+        <v>44.4</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -1833,8 +1865,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>167</v>
+      <c r="A59">
+        <v>168</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1843,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <v>44.4</v>
+        <v>48</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
@@ -1860,7 +1892,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1869,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <v>48</v>
+        <v>49.9</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -1886,7 +1918,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1895,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>49.9</v>
+        <v>43.2</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
@@ -1912,7 +1944,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>170</v>
+        <v>481</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1921,24 +1953,27 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>43.2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1947,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="D63">
-        <v>37</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
@@ -1967,7 +2002,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -1976,27 +2011,27 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>33.700000000000003</v>
+        <v>27.1</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
       </c>
       <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -2005,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>27.1</v>
+        <v>22.5</v>
       </c>
       <c r="E65" t="s">
         <v>15</v>
@@ -2013,19 +2048,19 @@
       <c r="F65">
         <v>3</v>
       </c>
-      <c r="G65" s="2">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -2034,27 +2069,18 @@
         <v>12</v>
       </c>
       <c r="D66">
-        <v>22.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
       <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2063,18 +2089,27 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>36.700000000000003</v>
+        <v>25.5</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2083,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -2091,19 +2126,19 @@
       <c r="F68">
         <v>3</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2112,13 +2147,13 @@
         <v>12</v>
       </c>
       <c r="D69">
-        <v>28.5</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
         <v>0</v>
@@ -2132,7 +2167,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2141,13 +2176,13 @@
         <v>12</v>
       </c>
       <c r="D70">
-        <v>35.799999999999997</v>
+        <v>26.2</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -2161,7 +2196,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -2170,27 +2205,18 @@
         <v>12</v>
       </c>
       <c r="D71">
-        <v>26.2</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
       <c r="F71">
-        <v>3</v>
-      </c>
-      <c r="G71" s="2">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2199,18 +2225,27 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>35.299999999999997</v>
+        <v>24.1</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -2219,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="D73">
-        <v>24.1</v>
+        <v>22.1</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -2239,7 +2274,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -2248,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="D74">
-        <v>22.1</v>
+        <v>23.8</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -2268,7 +2303,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2277,13 +2312,13 @@
         <v>12</v>
       </c>
       <c r="D75">
-        <v>23.8</v>
+        <v>31.5</v>
       </c>
       <c r="E75" t="s">
         <v>15</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
@@ -2297,7 +2332,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -2306,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="D76">
-        <v>31.5</v>
+        <v>36.6</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -2326,7 +2361,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2335,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="D77">
-        <v>36.6</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E77" t="s">
         <v>15</v>
@@ -2352,10 +2387,11 @@
       <c r="I77" s="2">
         <v>0</v>
       </c>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -2364,13 +2400,13 @@
         <v>12</v>
       </c>
       <c r="D78">
-        <v>39.700000000000003</v>
+        <v>22.8</v>
       </c>
       <c r="E78" t="s">
         <v>15</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" s="2">
         <v>0</v>
@@ -2381,11 +2417,10 @@
       <c r="I78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -2394,13 +2429,13 @@
         <v>12</v>
       </c>
       <c r="D79">
-        <v>22.8</v>
+        <v>33.9</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G79" s="2">
         <v>0</v>
@@ -2414,7 +2449,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -2423,13 +2458,13 @@
         <v>12</v>
       </c>
       <c r="D80">
-        <v>33.9</v>
+        <v>29.2</v>
       </c>
       <c r="E80" t="s">
         <v>15</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="2">
         <v>0</v>
@@ -2443,7 +2478,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -2452,13 +2487,13 @@
         <v>12</v>
       </c>
       <c r="D81">
-        <v>29.2</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" s="2">
         <v>0</v>
@@ -2467,35 +2502,6 @@
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>500</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82">
-        <v>4</v>
-      </c>
-      <c r="G82" s="2">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
         <v>0</v>
       </c>
     </row>
